--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Desktop\wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C88C827-83D3-4986-9D30-2B04D577A115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90CBC7-E2A3-4EF9-BA53-37E85BD8D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A9C74E-F329-4BB1-80F1-25049DF43170}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A9C74E-F329-4BB1-80F1-25049DF43170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19376E-747D-4389-9727-AB0ABF9D50A8}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,7 +792,7 @@
         <v>126.97793535570101</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>126.985978702069</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>126.990043870766</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Desktop\wish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90CBC7-E2A3-4EF9-BA53-37E85BD8D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1779340-98A4-4345-B701-F794FDC1CCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9A9C74E-F329-4BB1-80F1-25049DF43170}"/>
+    <workbookView xWindow="10830" yWindow="-120" windowWidth="12150" windowHeight="11175" xr2:uid="{C9A9C74E-F329-4BB1-80F1-25049DF43170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t xml:space="preserve">카페 낙원역 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19376E-747D-4389-9727-AB0ABF9D50A8}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1258,6 +1262,23 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37.579259999999998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>127.00229</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
